--- a/Simulated/88Inch_Activation/88_Vault_ETA_TENDL/Foils.xlsx
+++ b/Simulated/88Inch_Activation/88_Vault_ETA_TENDL/Foils.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>Radius [cm]</t>
   </si>
@@ -181,9 +181,6 @@
   </si>
   <si>
     <t>σ (rel)</t>
-  </si>
-  <si>
-    <t>ENDF 115In(n,g)</t>
   </si>
 </sst>
 </file>
@@ -659,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P53"/>
+  <dimension ref="A1:P52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -748,7 +745,8 @@
         <v>9944835104.503521</v>
       </c>
       <c r="F2" s="40">
-        <v>1.2365E-7</v>
+        <f>0.00000012365*0.022148/0.02551</f>
+        <v>1.0735398667189337E-7</v>
       </c>
       <c r="G2" s="40">
         <v>4.0000000000000001E-3</v>
@@ -769,7 +767,7 @@
         <v>0.51449999999999996</v>
       </c>
       <c r="M2" s="42">
-        <f t="shared" ref="M2:M20" si="0">3.141592654*H2^2*I2</f>
+        <f t="shared" ref="M2:M19" si="0">3.141592654*H2^2*I2</f>
         <v>1.9634954087500001</v>
       </c>
       <c r="N2" s="43">
@@ -777,12 +775,12 @@
         <v>282276</v>
       </c>
       <c r="O2" s="44">
-        <f t="shared" ref="O2:O20" si="1">0.6931471806/N2</f>
+        <f t="shared" ref="O2:O19" si="1">0.6931471806/N2</f>
         <v>2.4555654061981891E-6</v>
       </c>
       <c r="P2" s="44">
         <f>F2/(6.022E+23*J2/K2)/L2</f>
-        <v>5.5284793252950136E-30</v>
+        <v>4.7998729947720099E-30</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -835,7 +833,7 @@
         <v>5.4084517837078655E-6</v>
       </c>
       <c r="P3" s="44">
-        <f t="shared" ref="P3:P20" si="2">F3/(6.022E+23*J3/K3)/L3</f>
+        <f t="shared" ref="P3:P19" si="2">F3/(6.022E+23*J3/K3)/L3</f>
         <v>2.8300588686375036E-31</v>
       </c>
     </row>
@@ -1003,79 +1001,79 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="37" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C7" s="38">
-        <v>1293.56</v>
+        <v>355.7</v>
       </c>
       <c r="D7" s="38">
-        <v>84.8</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="E7" s="39">
         <v>9944835104.503521</v>
       </c>
       <c r="F7" s="40">
-        <v>3.1306799999999998E-7</v>
+        <v>8.9036599999999999E-7</v>
       </c>
       <c r="G7" s="40">
-        <v>1.5E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="H7" s="38">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="I7" s="38">
-        <v>0.1</v>
+        <v>2.5399999999999999E-2</v>
       </c>
       <c r="J7" s="38">
-        <v>7.31</v>
+        <v>19.32</v>
       </c>
       <c r="K7" s="38">
-        <v>114.9038</v>
+        <v>196.9666</v>
       </c>
       <c r="L7" s="41">
-        <v>0.95709999999999995</v>
+        <v>1</v>
       </c>
       <c r="M7" s="42">
-        <f t="shared" ref="M7" si="3">3.141592654*H7^2*I7</f>
-        <v>1.9634954087500001</v>
+        <f t="shared" si="0"/>
+        <v>0.31918581364639997</v>
       </c>
       <c r="N7" s="43">
-        <f>54.12*60</f>
-        <v>3247.2</v>
+        <f>2.695*24*3600</f>
+        <v>232847.99999999997</v>
       </c>
       <c r="O7" s="44">
-        <f t="shared" ref="O7" si="4">0.6931471806/N7</f>
-        <v>2.134599595343681E-4</v>
+        <f t="shared" si="1"/>
+        <v>2.9768225649350652E-6</v>
       </c>
       <c r="P7" s="44">
-        <f t="shared" ref="P7" si="5">F7/(6.022E+23*J7/K7)/L7</f>
-        <v>8.5380290080766051E-30</v>
+        <f t="shared" si="2"/>
+        <v>1.5073471441120308E-29</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="38">
-        <v>355.7</v>
+        <v>411.8</v>
       </c>
       <c r="D8" s="38">
-        <v>80.900000000000006</v>
+        <v>95.62</v>
       </c>
       <c r="E8" s="39">
         <v>9944835104.503521</v>
       </c>
       <c r="F8" s="40">
-        <v>8.9036599999999999E-7</v>
+        <v>2.9019500000000001E-7</v>
       </c>
       <c r="G8" s="40">
-        <v>3.0000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="H8" s="38">
         <v>2</v>
@@ -1097,93 +1095,93 @@
         <v>0.31918581364639997</v>
       </c>
       <c r="N8" s="43">
-        <f>2.695*24*3600</f>
-        <v>232847.99999999997</v>
+        <f>6.17*24*3600</f>
+        <v>533088</v>
       </c>
       <c r="O8" s="44">
         <f t="shared" si="1"/>
-        <v>2.9768225649350652E-6</v>
+        <v>1.3002490782009725E-6</v>
       </c>
       <c r="P8" s="44">
         <f t="shared" si="2"/>
-        <v>1.5073471441120308E-29</v>
+        <v>4.9128628506208773E-30</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="38">
-        <v>411.8</v>
-      </c>
-      <c r="D9" s="38">
-        <v>95.62</v>
+        <v>11</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="46">
+        <v>843.76</v>
+      </c>
+      <c r="D9" s="46">
+        <v>71.8</v>
       </c>
       <c r="E9" s="39">
         <v>9944835104.503521</v>
       </c>
-      <c r="F9" s="40">
-        <v>2.9019500000000001E-7</v>
-      </c>
-      <c r="G9" s="40">
-        <v>1.5E-3</v>
+      <c r="F9" s="47">
+        <v>6.7105599999999997E-8</v>
+      </c>
+      <c r="G9" s="47">
+        <v>2.3E-3</v>
       </c>
       <c r="H9" s="38">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="I9" s="38">
-        <v>2.5399999999999999E-2</v>
+        <v>0.1</v>
       </c>
       <c r="J9" s="38">
-        <v>19.32</v>
+        <v>2.7</v>
       </c>
       <c r="K9" s="38">
-        <v>196.9666</v>
+        <v>26.9815</v>
       </c>
       <c r="L9" s="41">
         <v>1</v>
       </c>
       <c r="M9" s="42">
         <f t="shared" si="0"/>
-        <v>0.31918581364639997</v>
+        <v>1.9634954087500001</v>
       </c>
       <c r="N9" s="43">
-        <f>6.17*24*3600</f>
-        <v>533088</v>
+        <f>15*3600</f>
+        <v>54000</v>
       </c>
       <c r="O9" s="44">
         <f t="shared" si="1"/>
-        <v>1.3002490782009725E-6</v>
+        <v>1.28360589E-5</v>
       </c>
       <c r="P9" s="44">
         <f t="shared" si="2"/>
-        <v>4.9128628506208773E-30</v>
+        <v>1.1135772208076558E-30</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="46">
-        <v>843.76</v>
+        <v>1368.63</v>
       </c>
       <c r="D10" s="46">
-        <v>71.8</v>
+        <v>99.99</v>
       </c>
       <c r="E10" s="39">
         <v>9944835104.503521</v>
       </c>
       <c r="F10" s="47">
-        <v>6.7105599999999997E-8</v>
+        <v>6.1452100000000005E-8</v>
       </c>
       <c r="G10" s="47">
-        <v>2.3E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="H10" s="38">
         <v>2.5</v>
@@ -1204,130 +1202,130 @@
         <f t="shared" si="0"/>
         <v>1.9634954087500001</v>
       </c>
-      <c r="N10" s="43">
-        <f>15*3600</f>
-        <v>54000</v>
+      <c r="N10" s="50">
+        <f>114.74*24*3600</f>
+        <v>9913536</v>
       </c>
       <c r="O10" s="44">
         <f t="shared" si="1"/>
-        <v>1.28360589E-5</v>
+        <v>6.9919268018999477E-8</v>
       </c>
       <c r="P10" s="44">
+        <f>F10/(6.022E+23*J10/K10)/L10</f>
+        <v>1.019760776012645E-30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="45">
+        <v>9944835104.503521</v>
+      </c>
+      <c r="F11" s="22">
+        <v>2.1592999999999998E-6</v>
+      </c>
+      <c r="G11" s="22">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="H11" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="I11" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="J11" s="15">
+        <v>12.41</v>
+      </c>
+      <c r="K11" s="15">
+        <v>102.90560000000001</v>
+      </c>
+      <c r="L11" s="51">
+        <v>1</v>
+      </c>
+      <c r="M11" s="19">
+        <f t="shared" si="0"/>
+        <v>0.19634954087500001</v>
+      </c>
+      <c r="N11" s="52">
+        <f>56.114*60</f>
+        <v>3366.8399999999997</v>
+      </c>
+      <c r="O11" s="20">
+        <f t="shared" si="1"/>
+        <v>2.0587470167872547E-4</v>
+      </c>
+      <c r="P11" s="20">
         <f t="shared" si="2"/>
-        <v>1.1135772208076558E-30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="46">
-        <v>1368.63</v>
-      </c>
-      <c r="D11" s="46">
-        <v>99.99</v>
-      </c>
-      <c r="E11" s="39">
+        <v>2.9733050006543293E-29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="31">
+        <v>159.38</v>
+      </c>
+      <c r="D12" s="31">
+        <v>68.3</v>
+      </c>
+      <c r="E12" s="25">
         <v>9944835104.503521</v>
       </c>
-      <c r="F11" s="47">
-        <v>6.1452100000000005E-8</v>
-      </c>
-      <c r="G11" s="47">
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="H11" s="38">
+      <c r="F12" s="32">
+        <v>3.3665999999999999E-9</v>
+      </c>
+      <c r="G12" s="32">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="H12" s="24">
         <v>2.5</v>
       </c>
-      <c r="I11" s="38">
+      <c r="I12" s="24">
         <v>0.1</v>
       </c>
-      <c r="J11" s="38">
-        <v>2.7</v>
-      </c>
-      <c r="K11" s="38">
-        <v>26.9815</v>
-      </c>
-      <c r="L11" s="41">
-        <v>1</v>
-      </c>
-      <c r="M11" s="42">
+      <c r="J12" s="26">
+        <v>4.43</v>
+      </c>
+      <c r="K12" s="26">
+        <v>45.952599999999997</v>
+      </c>
+      <c r="L12" s="27">
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="M12" s="28">
         <f t="shared" si="0"/>
         <v>1.9634954087500001</v>
       </c>
-      <c r="N11" s="50">
-        <f>114.74*24*3600</f>
-        <v>9913536</v>
-      </c>
-      <c r="O11" s="44">
+      <c r="N12" s="54">
+        <f>3.3492*24*3600</f>
+        <v>289370.88</v>
+      </c>
+      <c r="O12" s="30">
         <f t="shared" si="1"/>
-        <v>6.9919268018999477E-8</v>
-      </c>
-      <c r="P11" s="44">
-        <f>F11/(6.022E+23*J11/K11)/L11</f>
-        <v>1.019760776012645E-30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="45">
-        <v>9944835104.503521</v>
-      </c>
-      <c r="F12" s="22">
-        <v>2.1592999999999998E-6</v>
-      </c>
-      <c r="G12" s="22">
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="H12" s="15">
-        <v>2.5</v>
-      </c>
-      <c r="I12" s="15">
-        <v>0.01</v>
-      </c>
-      <c r="J12" s="15">
-        <v>12.41</v>
-      </c>
-      <c r="K12" s="15">
-        <v>102.90560000000001</v>
-      </c>
-      <c r="L12" s="51">
-        <v>1</v>
-      </c>
-      <c r="M12" s="19">
-        <f t="shared" si="0"/>
-        <v>0.19634954087500001</v>
-      </c>
-      <c r="N12" s="52">
-        <f>56.114*60</f>
-        <v>3366.8399999999997</v>
-      </c>
-      <c r="O12" s="20">
-        <f t="shared" si="1"/>
-        <v>2.0587470167872547E-4</v>
-      </c>
-      <c r="P12" s="20">
-        <f t="shared" si="2"/>
-        <v>2.9733050006543293E-29</v>
+        <v>2.3953591342708707E-6</v>
+      </c>
+      <c r="P12" s="30">
+        <f>F12/(6.022E+23*J12/K12)/L12</f>
+        <v>7.0291560018355291E-31</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B13" s="31" t="s">
         <v>36</v>
@@ -1342,10 +1340,10 @@
         <v>9944835104.503521</v>
       </c>
       <c r="F13" s="32">
-        <v>3.3665999999999999E-9</v>
+        <v>8.5726700000000008E-9</v>
       </c>
       <c r="G13" s="32">
-        <v>4.7999999999999996E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="H13" s="24">
         <v>2.5</v>
@@ -1357,10 +1355,10 @@
         <v>4.43</v>
       </c>
       <c r="K13" s="26">
-        <v>45.952599999999997</v>
+        <v>46.951799999999999</v>
       </c>
       <c r="L13" s="27">
-        <v>8.2500000000000004E-2</v>
+        <v>7.4399999999999994E-2</v>
       </c>
       <c r="M13" s="28">
         <f t="shared" si="0"/>
@@ -1375,31 +1373,31 @@
         <v>2.3953591342708707E-6</v>
       </c>
       <c r="P13" s="30">
-        <f>F13/(6.022E+23*J13/K13)/L13</f>
-        <v>7.0291560018355291E-31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>2.0279205666204184E-30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C14" s="31">
-        <v>159.38</v>
+        <v>1312.12</v>
       </c>
       <c r="D14" s="31">
-        <v>68.3</v>
-      </c>
-      <c r="E14" s="25">
+        <v>100.1</v>
+      </c>
+      <c r="E14" s="35">
         <v>9944835104.503521</v>
       </c>
       <c r="F14" s="32">
-        <v>8.5726700000000008E-9</v>
+        <v>2.2000100000000001E-8</v>
       </c>
       <c r="G14" s="32">
-        <v>2.0999999999999999E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="H14" s="24">
         <v>2.5</v>
@@ -1407,107 +1405,107 @@
       <c r="I14" s="24">
         <v>0.1</v>
       </c>
-      <c r="J14" s="26">
+      <c r="J14" s="24">
         <v>4.43</v>
       </c>
-      <c r="K14" s="26">
-        <v>46.951799999999999</v>
-      </c>
-      <c r="L14" s="27">
-        <v>7.4399999999999994E-2</v>
+      <c r="K14" s="24">
+        <v>47.947899999999997</v>
+      </c>
+      <c r="L14" s="36">
+        <v>0.73719999999999997</v>
       </c>
       <c r="M14" s="28">
         <f t="shared" si="0"/>
         <v>1.9634954087500001</v>
       </c>
-      <c r="N14" s="54">
-        <f>3.3492*24*3600</f>
-        <v>289370.88</v>
+      <c r="N14" s="55">
+        <f>43.67*3600</f>
+        <v>157212</v>
       </c>
       <c r="O14" s="30">
         <f t="shared" si="1"/>
-        <v>2.3953591342708707E-6</v>
+        <v>4.4089966452942525E-6</v>
       </c>
       <c r="P14" s="30">
         <f t="shared" si="2"/>
-        <v>2.0279205666204184E-30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="31">
-        <v>1312.12</v>
-      </c>
-      <c r="D15" s="31">
-        <v>100.1</v>
-      </c>
-      <c r="E15" s="35">
+        <v>5.3636995397118162E-31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="21">
+        <v>1761.9</v>
+      </c>
+      <c r="D15" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="E15" s="16">
         <v>9944835104.503521</v>
       </c>
-      <c r="F15" s="32">
-        <v>2.2000100000000001E-8</v>
-      </c>
-      <c r="G15" s="32">
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="H15" s="24">
+      <c r="F15" s="22">
+        <v>1.1120000000000001E-9</v>
+      </c>
+      <c r="G15" s="22">
+        <v>2.8E-3</v>
+      </c>
+      <c r="H15" s="15">
         <v>2.5</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15" s="15">
         <v>0.1</v>
       </c>
-      <c r="J15" s="24">
+      <c r="J15" s="14">
         <v>4.43</v>
       </c>
-      <c r="K15" s="24">
-        <v>47.947899999999997</v>
-      </c>
-      <c r="L15" s="36">
-        <v>0.73719999999999997</v>
-      </c>
-      <c r="M15" s="28">
+      <c r="K15" s="17">
+        <v>48.947899999999997</v>
+      </c>
+      <c r="L15" s="18">
+        <v>5.4100000000000002E-2</v>
+      </c>
+      <c r="M15" s="19">
         <f t="shared" si="0"/>
         <v>1.9634954087500001</v>
       </c>
-      <c r="N15" s="55">
-        <f>43.67*3600</f>
-        <v>157212</v>
-      </c>
-      <c r="O15" s="30">
+      <c r="N15" s="52">
+        <f>57.18*60</f>
+        <v>3430.8</v>
+      </c>
+      <c r="O15" s="20">
         <f t="shared" si="1"/>
-        <v>4.4089966452942525E-6</v>
-      </c>
-      <c r="P15" s="30">
+        <v>2.0203660388247639E-4</v>
+      </c>
+      <c r="P15" s="20">
         <f t="shared" si="2"/>
-        <v>5.3636995397118162E-31</v>
+        <v>3.7713523436601603E-31</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C16" s="21">
-        <v>1761.9</v>
+        <v>1312.12</v>
       </c>
       <c r="D16" s="21">
-        <v>0.05</v>
+        <v>100.1</v>
       </c>
       <c r="E16" s="16">
         <v>9944835104.503521</v>
       </c>
       <c r="F16" s="22">
-        <v>1.1120000000000001E-9</v>
+        <v>2.0907999999999999E-10</v>
       </c>
       <c r="G16" s="22">
-        <v>2.8E-3</v>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="H16" s="15">
         <v>2.5</v>
@@ -1528,94 +1526,94 @@
         <f t="shared" si="0"/>
         <v>1.9634954087500001</v>
       </c>
-      <c r="N16" s="52">
-        <f>57.18*60</f>
-        <v>3430.8</v>
+      <c r="N16" s="53">
+        <f>43.67*3600</f>
+        <v>157212</v>
       </c>
       <c r="O16" s="20">
         <f t="shared" si="1"/>
-        <v>2.0203660388247639E-4</v>
+        <v>4.4089966452942525E-6</v>
       </c>
       <c r="P16" s="20">
         <f t="shared" si="2"/>
-        <v>3.7713523436601603E-31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="21">
-        <v>1312.12</v>
-      </c>
-      <c r="D17" s="21">
-        <v>100.1</v>
-      </c>
-      <c r="E17" s="16">
+        <v>7.0909563670185805E-32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="24">
+        <v>511</v>
+      </c>
+      <c r="D17" s="24">
+        <v>102</v>
+      </c>
+      <c r="E17" s="25">
         <v>9944835104.503521</v>
       </c>
-      <c r="F17" s="22">
-        <v>2.0907999999999999E-10</v>
-      </c>
-      <c r="G17" s="22">
-        <v>6.4000000000000003E-3</v>
-      </c>
-      <c r="H17" s="15">
+      <c r="F17" s="25">
+        <v>3.3037800000000002E-7</v>
+      </c>
+      <c r="G17" s="25">
+        <v>3.3E-3</v>
+      </c>
+      <c r="H17" s="24">
         <v>2.5</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="24">
         <v>0.1</v>
       </c>
-      <c r="J17" s="14">
-        <v>4.43</v>
-      </c>
-      <c r="K17" s="17">
-        <v>48.947899999999997</v>
-      </c>
-      <c r="L17" s="18">
-        <v>5.4100000000000002E-2</v>
-      </c>
-      <c r="M17" s="19">
+      <c r="J17" s="24">
+        <v>6.77</v>
+      </c>
+      <c r="K17" s="26">
+        <v>140.90770000000001</v>
+      </c>
+      <c r="L17" s="27">
+        <v>1</v>
+      </c>
+      <c r="M17" s="28">
         <f t="shared" si="0"/>
         <v>1.9634954087500001</v>
       </c>
-      <c r="N17" s="53">
-        <f>43.67*3600</f>
-        <v>157212</v>
-      </c>
-      <c r="O17" s="20">
+      <c r="N17" s="29">
+        <f>3.39*60</f>
+        <v>203.4</v>
+      </c>
+      <c r="O17" s="30">
         <f t="shared" si="1"/>
-        <v>4.4089966452942525E-6</v>
-      </c>
-      <c r="P17" s="20">
+        <v>3.4078032477876108E-3</v>
+      </c>
+      <c r="P17" s="30">
         <f t="shared" si="2"/>
-        <v>7.0909563670185805E-32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+        <v>1.1418693768000837E-29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="24">
+        <v>45</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="31">
         <v>511</v>
       </c>
-      <c r="D18" s="24">
-        <v>102</v>
+      <c r="D18" s="31">
+        <v>195.66</v>
       </c>
       <c r="E18" s="25">
         <v>9944835104.503521</v>
       </c>
-      <c r="F18" s="25">
-        <v>3.3037800000000002E-7</v>
-      </c>
-      <c r="G18" s="25">
-        <v>3.3E-3</v>
+      <c r="F18" s="32">
+        <v>1.89319E-7</v>
+      </c>
+      <c r="G18" s="32">
+        <v>3.8E-3</v>
       </c>
       <c r="H18" s="24">
         <v>2.5</v>
@@ -1623,53 +1621,53 @@
       <c r="I18" s="24">
         <v>0.1</v>
       </c>
-      <c r="J18" s="24">
-        <v>6.77</v>
-      </c>
-      <c r="K18" s="26">
-        <v>140.90770000000001</v>
-      </c>
-      <c r="L18" s="27">
-        <v>1</v>
+      <c r="J18" s="26">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="K18" s="23">
+        <v>62.929600000000001</v>
+      </c>
+      <c r="L18" s="33">
+        <v>0.69169999999999998</v>
       </c>
       <c r="M18" s="28">
         <f t="shared" si="0"/>
         <v>1.9634954087500001</v>
       </c>
-      <c r="N18" s="29">
-        <f>3.39*60</f>
-        <v>203.4</v>
+      <c r="N18" s="34">
+        <f>9.673*60</f>
+        <v>580.38</v>
       </c>
       <c r="O18" s="30">
         <f t="shared" si="1"/>
-        <v>3.4078032477876108E-3</v>
+        <v>1.1942988741858783E-3</v>
       </c>
       <c r="P18" s="30">
         <f t="shared" si="2"/>
-        <v>1.1418693768000837E-29</v>
+        <v>3.1921451913112672E-30</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C19" s="31">
         <v>511</v>
       </c>
       <c r="D19" s="31">
-        <v>195.66</v>
+        <v>21.65</v>
       </c>
       <c r="E19" s="25">
         <v>9944835104.503521</v>
       </c>
       <c r="F19" s="32">
-        <v>1.89319E-7</v>
+        <v>1.4602100000000001E-7</v>
       </c>
       <c r="G19" s="32">
-        <v>3.8E-3</v>
+        <v>3.8999999999999998E-3</v>
       </c>
       <c r="H19" s="24">
         <v>2.5</v>
@@ -1681,102 +1679,52 @@
         <v>8.9600000000000009</v>
       </c>
       <c r="K19" s="23">
-        <v>62.929600000000001</v>
+        <v>64.927800000000005</v>
       </c>
       <c r="L19" s="33">
-        <v>0.69169999999999998</v>
+        <v>0.30830000000000002</v>
       </c>
       <c r="M19" s="28">
         <f t="shared" si="0"/>
         <v>1.9634954087500001</v>
       </c>
       <c r="N19" s="34">
-        <f>9.673*60</f>
-        <v>580.38</v>
+        <f>12.701*3600</f>
+        <v>45723.6</v>
       </c>
       <c r="O19" s="30">
         <f t="shared" si="1"/>
-        <v>1.1942988741858783E-3</v>
+        <v>1.515950582631289E-5</v>
       </c>
       <c r="P19" s="30">
         <f t="shared" si="2"/>
-        <v>3.1921451913112672E-30</v>
+        <v>5.6993289015595097E-30</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="31">
-        <v>511</v>
-      </c>
-      <c r="D20" s="31">
-        <v>21.65</v>
-      </c>
-      <c r="E20" s="25">
-        <v>9944835104.503521</v>
-      </c>
-      <c r="F20" s="32">
-        <v>1.4602100000000001E-7</v>
-      </c>
-      <c r="G20" s="32">
-        <v>3.8999999999999998E-3</v>
-      </c>
-      <c r="H20" s="24">
-        <v>2.5</v>
-      </c>
-      <c r="I20" s="24">
-        <v>0.1</v>
-      </c>
-      <c r="J20" s="26">
-        <v>8.9600000000000009</v>
-      </c>
-      <c r="K20" s="23">
-        <v>64.927800000000005</v>
-      </c>
-      <c r="L20" s="33">
-        <v>0.30830000000000002</v>
-      </c>
-      <c r="M20" s="28">
-        <f t="shared" si="0"/>
-        <v>1.9634954087500001</v>
-      </c>
-      <c r="N20" s="34">
-        <f>12.701*3600</f>
-        <v>45723.6</v>
-      </c>
-      <c r="O20" s="30">
-        <f t="shared" si="1"/>
-        <v>1.515950582631289E-5</v>
-      </c>
-      <c r="P20" s="30">
-        <f t="shared" si="2"/>
-        <v>5.6993289015595097E-30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="M21"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="7"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="M20"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="7"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I23" s="6"/>
       <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I25" s="6"/>
@@ -1889,10 +1837,6 @@
     <row r="52" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
-    </row>
-    <row r="53" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Simulated/88Inch_Activation/88_Vault_ETA_TENDL/Foils.xlsx
+++ b/Simulated/88Inch_Activation/88_Vault_ETA_TENDL/Foils.xlsx
@@ -659,7 +659,7 @@
   <dimension ref="A1:P52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1022,10 +1022,10 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H7" s="38">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="I7" s="38">
-        <v>2.5399999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="J7" s="38">
         <v>19.32</v>
@@ -1038,15 +1038,14 @@
       </c>
       <c r="M7" s="42">
         <f t="shared" si="0"/>
-        <v>0.31918581364639997</v>
+        <v>0.19634954087500001</v>
       </c>
       <c r="N7" s="43">
-        <f>2.695*24*3600</f>
-        <v>232847.99999999997</v>
+        <v>533088</v>
       </c>
       <c r="O7" s="44">
         <f t="shared" si="1"/>
-        <v>2.9768225649350652E-6</v>
+        <v>1.3002490782009725E-6</v>
       </c>
       <c r="P7" s="44">
         <f t="shared" si="2"/>
@@ -1076,10 +1075,10 @@
         <v>1.5E-3</v>
       </c>
       <c r="H8" s="38">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="I8" s="38">
-        <v>2.5399999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="J8" s="38">
         <v>19.32</v>
@@ -1092,15 +1091,14 @@
       </c>
       <c r="M8" s="42">
         <f t="shared" si="0"/>
-        <v>0.31918581364639997</v>
+        <v>0.19634954087500001</v>
       </c>
       <c r="N8" s="43">
-        <f>6.17*24*3600</f>
-        <v>533088</v>
+        <v>232848</v>
       </c>
       <c r="O8" s="44">
         <f t="shared" si="1"/>
-        <v>1.3002490782009725E-6</v>
+        <v>2.9768225649350652E-6</v>
       </c>
       <c r="P8" s="44">
         <f t="shared" si="2"/>
